--- a/analises/2023/serie_temporal/dados/serie_por_modalidade_flex_2023.xlsx
+++ b/analises/2023/serie_temporal/dados/serie_por_modalidade_flex_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ano</t>
   </si>
@@ -25,13 +25,34 @@
     <t>total_sucesso</t>
   </si>
   <si>
+    <t>particip</t>
+  </si>
+  <si>
+    <t>taxa_sucesso</t>
+  </si>
+  <si>
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>taxa_sucesso</t>
-  </si>
-  <si>
     <t>media_sucesso</t>
+  </si>
+  <si>
+    <t>std_sucesso</t>
+  </si>
+  <si>
+    <t>min_sucesso</t>
+  </si>
+  <si>
+    <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
 </sst>
 </file>
@@ -39,8 +60,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="R$ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+    <numFmt numFmtId="164" formatCode="0.00%"/>
+    <numFmt numFmtId="165" formatCode="R$ #,##0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -395,18 +416,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -425,8 +446,29 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -436,17 +478,38 @@
       <c r="C2">
         <v>27</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <v>77.14285714285715</v>
+      </c>
+      <c r="F2" s="2">
         <v>282854.0616076232</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.7714285714285715</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="G2" s="2">
         <v>10476.0763558379</v>
       </c>
+      <c r="H2">
+        <v>22534.30873112471</v>
+      </c>
+      <c r="I2">
+        <v>35.53279454902379</v>
+      </c>
+      <c r="J2">
+        <v>112920.948828078</v>
+      </c>
+      <c r="K2">
+        <v>123.8957781899357</v>
+      </c>
+      <c r="L2">
+        <v>2283</v>
+      </c>
+      <c r="M2">
+        <v>84.55555555555556</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -456,17 +519,38 @@
       <c r="C3">
         <v>61</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>71.76470588235294</v>
+      </c>
+      <c r="F3" s="2">
         <v>547034.1393517209</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.7176470588235294</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="G3" s="2">
         <v>8967.77277625772</v>
       </c>
+      <c r="H3">
+        <v>15401.01801371438</v>
+      </c>
+      <c r="I3">
+        <v>34.74344187043801</v>
+      </c>
+      <c r="J3">
+        <v>95563.29532884162</v>
+      </c>
+      <c r="K3">
+        <v>84.9695774078473</v>
+      </c>
+      <c r="L3">
+        <v>6438</v>
+      </c>
+      <c r="M3">
+        <v>105.5409836065574</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -476,17 +560,38 @@
       <c r="C4">
         <v>126</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2">
         <v>1220999.723930209</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="G4" s="2">
         <v>9690.473999446107</v>
       </c>
+      <c r="H4">
+        <v>22024.70522671959</v>
+      </c>
+      <c r="I4">
+        <v>100.535340323175</v>
+      </c>
+      <c r="J4">
+        <v>200069.5140664897</v>
+      </c>
+      <c r="K4">
+        <v>81.37285730957744</v>
+      </c>
+      <c r="L4">
+        <v>15005</v>
+      </c>
+      <c r="M4">
+        <v>119.0873015873016</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -496,17 +601,38 @@
       <c r="C5">
         <v>148</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>93.08176100628931</v>
+      </c>
+      <c r="F5" s="2">
         <v>1286117.227427096</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.9308176100628931</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="G5" s="2">
         <v>8689.981266399294</v>
       </c>
+      <c r="H5">
+        <v>15794.77667258089</v>
+      </c>
+      <c r="I5">
+        <v>29.81192695893366</v>
+      </c>
+      <c r="J5">
+        <v>152784.2145360522</v>
+      </c>
+      <c r="K5">
+        <v>86.53146924760114</v>
+      </c>
+      <c r="L5">
+        <v>14863</v>
+      </c>
+      <c r="M5">
+        <v>100.4256756756757</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -516,17 +642,38 @@
       <c r="C6">
         <v>182</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>97.84946236559139</v>
+      </c>
+      <c r="F6" s="2">
         <v>3201820.20594214</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.978494623655914</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="G6" s="2">
         <v>17592.4187139678</v>
       </c>
+      <c r="H6">
+        <v>50496.83999940555</v>
+      </c>
+      <c r="I6">
+        <v>37.88389448447008</v>
+      </c>
+      <c r="J6">
+        <v>475290.9541363961</v>
+      </c>
+      <c r="K6">
+        <v>99.35826860953111</v>
+      </c>
+      <c r="L6">
+        <v>32225</v>
+      </c>
+      <c r="M6">
+        <v>177.0604395604396</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -536,17 +683,38 @@
       <c r="C7">
         <v>274</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" s="1">
+        <v>95.8041958041958</v>
+      </c>
+      <c r="F7" s="2">
         <v>5011848.096713034</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.958041958041958</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="G7" s="2">
         <v>18291.41641136144</v>
       </c>
+      <c r="H7">
+        <v>47799.72260745746</v>
+      </c>
+      <c r="I7">
+        <v>11.93343625774652</v>
+      </c>
+      <c r="J7">
+        <v>708972.7845446636</v>
+      </c>
+      <c r="K7">
+        <v>93.12240982372786</v>
+      </c>
+      <c r="L7">
+        <v>53820</v>
+      </c>
+      <c r="M7">
+        <v>196.4233576642336</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -556,17 +724,38 @@
       <c r="C8">
         <v>305</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <v>99.02597402597402</v>
+      </c>
+      <c r="F8" s="2">
         <v>4130315.02167561</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.9902597402597403</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="G8" s="2">
         <v>13542.0164645102</v>
       </c>
+      <c r="H8">
+        <v>30195.27723812832</v>
+      </c>
+      <c r="I8">
+        <v>10.77163914429046</v>
+      </c>
+      <c r="J8">
+        <v>374565.1458002281</v>
+      </c>
+      <c r="K8">
+        <v>82.8764777509804</v>
+      </c>
+      <c r="L8">
+        <v>49837</v>
+      </c>
+      <c r="M8">
+        <v>163.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2023</v>
       </c>
@@ -576,14 +765,35 @@
       <c r="C9">
         <v>260</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1">
+        <v>96.6542750929368</v>
+      </c>
+      <c r="F9" s="2">
         <v>2681143.460911666</v>
       </c>
-      <c r="E9" s="2">
-        <v>0.966542750929368</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="G9" s="2">
         <v>10312.09023427564</v>
+      </c>
+      <c r="H9">
+        <v>18179.72004853618</v>
+      </c>
+      <c r="I9">
+        <v>40.21627066051904</v>
+      </c>
+      <c r="J9">
+        <v>187832.6863604134</v>
+      </c>
+      <c r="K9">
+        <v>91.8986618992859</v>
+      </c>
+      <c r="L9">
+        <v>29175</v>
+      </c>
+      <c r="M9">
+        <v>112.2115384615385</v>
       </c>
     </row>
   </sheetData>
